--- a/public/assets/Stock Upload Template.xlsx
+++ b/public/assets/Stock Upload Template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Pov4zJnl8c1mmpmdz8ZdwZUGm5Ctx6f9Du6xs5635rE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8EQyaWfMv/3L+QHcKLHq4l/18l4YmjhgvGcrahxCmKM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Stock Id.</t>
   </si>
@@ -111,7 +111,16 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Melee Size From (mm)</t>
+  </si>
+  <si>
+    <t>Melee Size To (mm)</t>
+  </si>
+  <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Replace</t>
   </si>
 </sst>
 </file>
@@ -392,6 +401,9 @@
     <col customWidth="1" min="19" max="19" width="15.13"/>
     <col customWidth="1" min="20" max="23" width="15.63"/>
     <col customWidth="1" min="25" max="27" width="14.5"/>
+    <col customWidth="1" min="31" max="31" width="11.88"/>
+    <col customWidth="1" min="32" max="33" width="23.88"/>
+    <col customWidth="1" min="34" max="35" width="25.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -490,6 +502,15 @@
       </c>
       <c r="AF1" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>

--- a/public/assets/Stock Upload Template.xlsx
+++ b/public/assets/Stock Upload Template.xlsx
@@ -117,7 +117,7 @@
     <t>Melee Size To (mm)</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>Quantity</t>
   </si>
   <si>
     <t>Replace</t>
@@ -396,7 +396,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
     <col customWidth="1" min="18" max="18" width="14.75"/>
     <col customWidth="1" min="19" max="19" width="15.13"/>
     <col customWidth="1" min="20" max="23" width="15.63"/>
@@ -479,7 +478,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -497,19 +496,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
